--- a/data/trans_dic/P33B_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R3-Habitat-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.1471187234547327</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2283532144723169</v>
+        <v>0.2283532144723168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1889665821057141</v>
+        <v>0.188966582105714</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1209878809084371</v>
+        <v>0.1213716107427502</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2041277742079408</v>
+        <v>0.2041348012268895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1713628747540155</v>
+        <v>0.1720870919162334</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1789981862848681</v>
+        <v>0.1802595213716248</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2529873221662901</v>
+        <v>0.2542050913538194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2107497683562054</v>
+        <v>0.211275637692608</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1317822107675486</v>
+        <v>0.1347161008048403</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1995629200501356</v>
+        <v>0.2003838742959867</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1732066939396751</v>
+        <v>0.1725723928478726</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1802877064384009</v>
+        <v>0.1831557733607337</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2429217730919414</v>
+        <v>0.2421370357771398</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2057408917640058</v>
+        <v>0.2061067996053536</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09853117376526119</v>
+        <v>0.09876451723546044</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1649222713909554</v>
+        <v>0.1645927996539442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1373144945871301</v>
+        <v>0.1375531222829161</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1462623438015803</v>
+        <v>0.1487337114222502</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2132784346092427</v>
+        <v>0.2128654824751637</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1717292121031441</v>
+        <v>0.1718996233302572</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1866149784477935</v>
+        <v>0.1866149784477936</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.2372813613739137</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1628037209125643</v>
+        <v>0.1630049704595492</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2147414771278484</v>
+        <v>0.217202540614772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1963914766533915</v>
+        <v>0.197925074433165</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2131246162151766</v>
+        <v>0.2137514905100304</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2578132389570486</v>
+        <v>0.2599701248611547</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2292702970042264</v>
+        <v>0.2294822091833389</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.1544833784981426</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2201583296902654</v>
+        <v>0.2201583296902653</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1882404373811206</v>
+        <v>0.1882404373811207</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1410628028153882</v>
+        <v>0.1404877661425593</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2096581977364999</v>
+        <v>0.2085233523276036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1803753939454212</v>
+        <v>0.1793032977574212</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.168065623630614</v>
+        <v>0.1668470330535761</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2324279539116074</v>
+        <v>0.232063047000463</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1973274072086536</v>
+        <v>0.1965445562060301</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>83437</v>
+        <v>83701</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>149569</v>
+        <v>149574</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>243738</v>
+        <v>244768</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>123442</v>
+        <v>124312</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>185369</v>
+        <v>186262</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>299760</v>
+        <v>300508</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>138098</v>
+        <v>141173</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>213700</v>
+        <v>214579</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>366985</v>
+        <v>365641</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>188929</v>
+        <v>191934</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>260130</v>
+        <v>259290</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>435917</v>
+        <v>436692</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>79128</v>
+        <v>79315</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>133960</v>
+        <v>133692</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>221808</v>
+        <v>222194</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>117459</v>
+        <v>119444</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>173237</v>
+        <v>172902</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>277400</v>
+        <v>277675</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>161186</v>
+        <v>161385</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>240149</v>
+        <v>242902</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>414068</v>
+        <v>417301</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>211007</v>
+        <v>211627</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>288317</v>
+        <v>290730</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>483389</v>
+        <v>483836</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>498049</v>
+        <v>496019</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>782892</v>
+        <v>778655</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1310397</v>
+        <v>1302608</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>593388</v>
+        <v>589085</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>867918</v>
+        <v>866555</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1433550</v>
+        <v>1427863</v>
       </c>
     </row>
     <row r="24">
